--- a/loadDatabase/python/Хронология.xlsx
+++ b/loadDatabase/python/Хронология.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$303</definedName>
+  </definedNames>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="919">
   <si>
     <t>Город</t>
   </si>
@@ -1864,9 +1867,6 @@
   </si>
   <si>
     <t>состоялась встреча президента Беларуси с послом Германии в Беларуси Деттмаром Петером</t>
-  </si>
-  <si>
-    <t>Москву</t>
   </si>
   <si>
     <t>2018, 25 декабря</t>
@@ -2006,12 +2006,824 @@
   <si>
     <t>http://visit-voronezh.ru/guide/chto-posetit/pamyatniki-i-skulpturyi/pamyatnik-voronezh-–-rodina-vdv.html</t>
   </si>
+  <si>
+    <t>Вашингтон</t>
+  </si>
+  <si>
+    <t>1897, 4 марта</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/Республика_Гавайи</t>
+  </si>
+  <si>
+    <t>вступил в должность президент США Мак-Кинли Уильям</t>
+  </si>
+  <si>
+    <t>Буффало</t>
+  </si>
+  <si>
+    <t>1901, 6 сентября</t>
+  </si>
+  <si>
+    <t>на президента США Мак-Кинли Уильяма совершено покушение (умер 14 сентября 1901 года)</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/Мак-Кинли,_Уильям</t>
+  </si>
+  <si>
+    <t>https://ria.ru/20090508/170336219.html</t>
+  </si>
+  <si>
+    <t>https://xn--h1aagokeh.xn--p1ai/history_day/2-июня-1856-года-основан-город-благовеще/</t>
+  </si>
+  <si>
+    <t>http://www.pravo.by/novosti/novosti-pravo-by/2017/august/25367/</t>
+  </si>
+  <si>
+    <t>http://mfa.gov.by/print/press/news_mfa/b2c39164286574dc.html</t>
+  </si>
+  <si>
+    <t>https://ria.ru/20170822/1500889191.html</t>
+  </si>
+  <si>
+    <t>http://www.government.by/upload/docs/file6b052982b06269a0.PDF</t>
+  </si>
+  <si>
+    <t>Париж</t>
+  </si>
+  <si>
+    <t>1900, 14 апреля</t>
+  </si>
+  <si>
+    <t>в Париже открылась Всемирная выставка (Exposition Universelle)</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/Всемирная_выставка_(1900)</t>
+  </si>
+  <si>
+    <t>Строительство МКАД</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>Победа в матче за первенство мира по шахмитам Ноны Гаприндашвили.</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/years/</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/rasstrel-v-novocherkasske.html</t>
+  </si>
+  <si>
+    <t>Новочеркасск</t>
+  </si>
+  <si>
+    <t>Расстрел мирной демонстрации. На Новочеркасском электровозостроительном заводе имени Буденного повышение цен совпало с понижением расценок</t>
+  </si>
+  <si>
+    <t>Горький</t>
+  </si>
+  <si>
+    <t>Нижний Новгород</t>
+  </si>
+  <si>
+    <t>Горьковский автозавод выпускает новую модификацию «Волги» ГАЗ-21. В этом виде она до конца десятилетия — самый шикарный частный автомобиль</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/volga-gaz-21-bez-olenya.html</t>
+  </si>
+  <si>
+    <t>20 февраля США запустили своего первого космонавта. Подполковник Джон Гленн на корабле «Меркурий» почти за пять часов трижды облетел Землю и приводнился в Атлантическом океане</t>
+  </si>
+  <si>
+    <t>Мыс Канаверал</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/%D0%9C%D0%B5%D1%80%D0%BA%D1%83%D1%80%D0%B8%D0%B9-%D0%90%D1%82%D0%BB%D0%B0%D1%81-6</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/dzhon-glenn-gagarin-ameriki.html</t>
+  </si>
+  <si>
+    <t>Нобелевская премия по физике присуждается советскому академику Льву Ландау — «за пионерские работы в области теории конденсированных сред, в особенности жидкого гелия». Впервые в истории церемония вручения проходит в больнице: 7 января того же года Ландау попал в страшную автокатастрофу</t>
+  </si>
+  <si>
+    <t>Гавана</t>
+  </si>
+  <si>
+    <t>Главное мировое событие года — Карибский кризис, который едва не перерос в ядерную войну СССР и США</t>
+  </si>
+  <si>
+    <t>Формула счастья: работа, любовь, общение с людьми</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/karibskiy-krizis.html</t>
+  </si>
+  <si>
+    <t>XXII съезд КПСС в прямом и переносном смысле забивает последний гвоздь в гроб Сталина и обещает к 1980 году построить в СССР коммунизм</t>
+  </si>
+  <si>
+    <t>Братск</t>
+  </si>
+  <si>
+    <t>7 января 1961 года дала первый ток Братская ГЭС на реке Ангаре. До конца 60-х она — главный символ сибирских строек</t>
+  </si>
+  <si>
+    <t>Годовая выработка электроэнергии 22,6 млрд кВт*ч</t>
+  </si>
+  <si>
+    <t>Выходят в прокат высмеивающие мелких жуликов сатирические короткометражные фильмы режиссера Леонида Гайдая: «Пес Барбос и необыкновенный кросс» (про браконьеров) и «Самогонщики». В них впервые появляется трио Вицин — Никулин — Моргунов, главный комик советского кинематографа</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Подтверждение космического лидерства СССР: второй космонавт в мире — тоже советский! 6-7 августа свой полет совершает Герман Титов</t>
+  </si>
+  <si>
+    <t>Старт корабля «Восток» с пилотом-космонавтом Юрием Алексеевичем Гагариным на борту 12 апреля 1961 года в 09:07 по московскому времени (06:07 UTC) с космодрома Байконур</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/%D0%93%D0%B0%D0%B3%D0%B0%D1%80%D0%B8%D0%BD,_%D0%AE%D1%80%D0%B8%D0%B9_%D0%90%D0%BB%D0%B5%D0%BA%D1%81%D0%B5%D0%B5%D0%B2%D0%B8%D1%87#Полёт_в_космос</t>
+  </si>
+  <si>
+    <t>16 июня, закончив гастроли в Париже, танцор Ленинградского театра оперы и балета имени Кирова Рудольф Нуреев отказывается вернуться в СССР. Его «прыжок к свободе» — начало традиции: отныне советские балетные звезды будут оставаться на Западе регулярно</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/nureev-sbezhal-na-zapad.html</t>
+  </si>
+  <si>
+    <t>Ни до, ни после так подробно не рассказывалось о подпольном валютном рынке, существующем в СССР вопреки запрету на хождение иностранной наличности. В мае — июле 1961-го страна следит за судебными процессами по делу Рокотова</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/delo-rokotova.html</t>
+  </si>
+  <si>
+    <t>Официальный курс после денежной реформы — 61 копейка за доллар — явно заниженный, и в Москве процветает торговля с рук. Вовлеченные в нее образуют систему: «бегунки», «перекупщики», «связные». На вершине иерархии находятся «купцы». Троих из них — Яна Рокотова (его называют «главарем банды»), Владислава Файбы-шенко и Дмитрия Яковлева КГБ арестовал с поличным. Они оказались долларовыми миллионерами во времена, когда немыслимы миллионеры рублевые</t>
+  </si>
+  <si>
+    <t>В августе 1961-го, при очередном обострении отношений с Западным Берлином, власти ГДР, поддерживаемые Советским Союзом, возводят Берлинскую стену — самое наглядное свидетельство раскола Германии, Европы и мира</t>
+  </si>
+  <si>
+    <t>К 1961 году через Берлин на Запад сбежало более 2,5 миллиона человек — шестая часть населения ГДР. Соревнование двух систем проиграно вчистую: в ФРГ — экономическое чудо, в ГДР — советское плановое хозяйство, после двух пятилеток которого социалистический немец по всем показателям живет гораздо хуже капиталистического. В Берлине имеют хождение две валюты — официальный курс 1:1, на самом деле западную марку продают с рук за четыре восточных.</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/berlinskiy-krizis-berlinskaya-stena.html</t>
+  </si>
+  <si>
+    <t>Единственная встреча знаменитых лидеров США и СССР: президент Джон Кеннеди и премьер Никита Хрущев 3-4 июля в Вене обсуждают нарастающий Берлинский кризис</t>
+  </si>
+  <si>
+    <t>Позиции сторон диаметрально противоположны. США поощряют Западный Берлин — «вольный город», фактическую часть ФРГ, куда бегут жители Восточного Берлина, столицы ГДР. Для СССР это грозит крахом восточнонемецкого режима-сателлита и потерей стратегического плацдарма для полумиллионной Группы советских войск в Германии.</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/nikita-zhaklin-nina-dzhon.html</t>
+  </si>
+  <si>
+    <t>Для выпуска машинки перепрофилировали Запорожский комбайновый завод «Коммунар». Мощность первой модели — 23 лошадиных силы, скорость — 80 км/ч. Перед началом серийной сборки на пробном «Запорожце» по Красной площади покатали Хрущева — инициатора производства доступных автомобилей. Тот решил, что если даже он, такой тучный, в салоне помещается, то здесь будет просторно кому угодно. Велел только цену установить ниже 2000 рублей «новыми», что и было исполнено («Волга», машина для богатых, стоила 5500).</t>
+  </si>
+  <si>
+    <t>Запорожье</t>
+  </si>
+  <si>
+    <t>В продажу поступает первая советская микролитражка — автомобиль для народа «Запорожец» ЗАЗ-965, получивший прозвище «горбатый»</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/gorbatyy-zaporozhec.html</t>
+  </si>
+  <si>
+    <t>Плайя-Хирон</t>
+  </si>
+  <si>
+    <t>За три дня боев кубинская армия и милиция уничтожают большую часть нападавших, а 1113 человек берут в плен. Советский Союз, до того лишь присматривавшийся к Фиделю, отныне целиком на его стороне</t>
+  </si>
+  <si>
+    <t>В Белграде в начале сентября 1961 года проходит первая конференция неприсоединившихся государств. Ее инициаторы — лидер Индии Джавахарлал Неру, Объединенной Арабской Республики — Гамаль Абдель Насер и Югославии — Иосип Броз Тито. Основано Движение неприсоединения</t>
+  </si>
+  <si>
+    <t>Белград</t>
+  </si>
+  <si>
+    <t>Разгромлен подготовленный спецслужбами США десант кубинских эмигрантов, которые хотели свергнуть Фиделя Кастро. Команданте заявляет о строительстве на Кубе социализма
+Разгромлен подготовленный спецслужбами США десант кубинских эмигрантов, которые хотели свергнуть Фиделя Кастро. Команданте заявляет о строительстве на Кубе социализма</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/dvizhenie-neprisoedineniya.html</t>
+  </si>
+  <si>
+    <t>С 1 января 1961 года в СССР проводится денежная реформа. Это деноминация: рубли старого образца обмениваются на новые в соотношении десять к одному при таком же уменьшении масштаба цен</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/novye-dengi.html</t>
+  </si>
+  <si>
+    <t>Средняя зарплата в городах тогда составляет около 90 рублей в месяц, на селе — около 70.</t>
+  </si>
+  <si>
+    <t>22 ноября совершено самое громкое политическое убийство в мировой истории. 35-й президент США Джон Фицджеральд Кеннеди застрелен при проезде в открытой машине по городу Далласу, штат Техас</t>
+  </si>
+  <si>
+    <t>Даллас</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/ubili-kennedi.html</t>
+  </si>
+  <si>
+    <t>Самое громкое убийство — и самое таинственное. Обвиненного Ли Харви Освальда через два дня (еще до похорон Кеннеди) застрелили в полицейском участке (а застреливший его Джек Руби умрет от рака в тюремной камере). Комиссар сената будет утверждать, что, стреляя из окна склада школьных учебников, Ли Харви Освальд действовал в одиночку, но большинство американцев этому не поверит.</t>
+  </si>
+  <si>
+    <t>Попытки реформировать колхозы лишь ухудшили продовольственное снабжение, и неурожай 1963 года заставляет руководство СССР впервые со времен голода 1921-1922 годов закупить зерно за границей</t>
+  </si>
+  <si>
+    <t>Власти идут на крайнюю меру — закупают зерно за границей, в основном в США, сельское хозяйство которых собирались обогнать. На 9,4 млн тонн пшеницы тратятся более 372 тонн золота — треть национального запаса.</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/zerno-iz-za-granicy.html</t>
+  </si>
+  <si>
+    <t>Лондон</t>
+  </si>
+  <si>
+    <t>Неотменяемая истина: Лев Яшин — лучший вратарь всех времен и народов. Истина родилась 23 октября, когда на лондонском «Уэмбли» проходит посвященный столетию футбола матч века: сборная мира — сборная Англии, и Яшин блестяще защищает ворота сборной мира. 10 ноября в Риме в игре против сборной Италии Яшин берет пенальти и несколько пушечных ударов в упор</t>
+  </si>
+  <si>
+    <t>в 1963 г. Лев Яшин получает Золотой мяч — приз лучшему футболисту Европы.</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/lev-yashin.html</t>
+  </si>
+  <si>
+    <t>Китайцы критикуют СССР за отсутствие диктатуры пролетариата и объявляют советских коммунистов ревизионистами, считая себя единственными верными наследниками «учения Маркса — Ленина — Сталина — Мао». В советском письме впервые говорится о культе личности Мао Цзедуна.</t>
+  </si>
+  <si>
+    <t>В мировом коммунизме — раскол: начинается конфликт между социалистической страной №1 и социалистической страной №2. Китаец и русский больше не «братья навек»</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/sssr-possorilsya-s-kitaem.html</t>
+  </si>
+  <si>
+    <t>В США запрещаются остатки сегрегации — дискриминации по признаку расы. Больше не может быть ресторанов, отелей, кинотеатров и других публичных мест только для белых. На традиционно расистском Юге поднимается настоящая война</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За три дня до начала учебного года Мартин Лютер Кинг устраивает — поход на Вашингтон — самую мощную акцию за права черной Америки. В шествии участвуют 200 тысяч человек из всех 50 штатов. </t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/v-amerike-byut-negrov-pokhod-kinga-na-va.html</t>
+  </si>
+  <si>
+    <t>Бархатный сезон-63 Никита Хрущев проводит в Югославии, завершая «нормализацию отношений» — при Сталине югославский режим считали фашистским</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/yugoslaviya-snova-bratskaya.html</t>
+  </si>
+  <si>
+    <t>товарооборот с СССР растет быстро. Югославская мебель, лекарства, одежда и обувь котируются выше всех восточноевропейских, граждане Югославии — в просторечии «юги» — среди братских народов слывут самыми богатыми. Начинается советский туризм в Югославию</t>
+  </si>
+  <si>
+    <t>В мировых шахматах заканчивается эра Михаила Ботвинника — чемпиона с 1948 года. Выиграв матч за высшее звание со счетом 12,5 : 9,5, 9-м чемпионом мира становится Тигран Петросян. Комментаторы спокойны: «Победа все равно осталась за советской шахматной школой»</t>
+  </si>
+  <si>
+    <t>Чемпионом мира по шахматам становится Тигран Петросян</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/botvinnik-ne-chempion.html</t>
+  </si>
+  <si>
+    <t>16 июня в космос впервые отправилась женщина. Валентина Терешкова на корабле «Восток-6» совершает 48 витков вокруг Земли. Орбита ее карьеры по возвращении — тоже крутая</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/valentina-tereshkova.html</t>
+  </si>
+  <si>
+    <t>В ноябре этого же года играют самую знаменитую свадьбу эпохи. Первая космонавтка выходит замуж за третьего космонавта, командира отряда космонавтов Андрияна Николаева. В московском Дворце бракосочетаний №1 на улице Грибоедова «Сокол» подвел «Чайку» к столу, и она впервые написала свою новую фамилию — Николаева-Терешкова. Свидетели со стороны невесты — Юрий Гагарин и его жена</t>
+  </si>
+  <si>
+    <t>К концу года первая советская нефть по трубам приходит во все социалистические страны, куда проложен крупнейший в мире нефтепровод «Дружба»</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/borba-s-tuneyadcami-soslali-brodskog.html</t>
+  </si>
+  <si>
+    <t>Указ «Об усилении борьбы с лицами, уклоняющимися от общественно полезного труда» должен перевоспитать тех, кто работает только на себя.</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/nefteprovod-druzhba.html</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/snyali-khrushheva.html</t>
+  </si>
+  <si>
+    <t>Нобелевская премия по физике в этом году — советская на две трети
+Николай Касон и Александр Прохоров делят награду с американцем Чарльзом Таунсом из Колумбийского университета.</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/nobelevskaya-premiya-basovu-i-prokhoro.html</t>
+  </si>
+  <si>
+    <t>Принято «Положение о пенсиях членам колхозов»: до этого сельским старикам никаких пособий не платили</t>
+  </si>
+  <si>
+    <t>Стокгольм</t>
+  </si>
+  <si>
+    <t>В эфир начинает выходить телепередача «Спокойной ночи, малыши!»: развлекательноназидательная сценка минут на пять плюс мультфильм минут на десять</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/spokoynoy-nochi-malyshi.html</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/pensii-kolkhoznikam.html</t>
+  </si>
+  <si>
+    <t>1 августа по второй программе Всесоюзного радио впервые вышла в эфир информационно-музыкальная радиостанция «Маяк»</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/vy-slushaete-mayak.html</t>
+  </si>
+  <si>
+    <t>Нобелевская премия по литературе единственный раз присуждается советскому классику — за роман «Тихий Дон» ее получает Михаил Шолохов</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/sholokhov-nobelevskiy-laureat.html</t>
+  </si>
+  <si>
+    <t>XX лет Победы
+Первый юбилей Победы празднуют, уточняя каноническую версию хода войны и списки ее героев</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/xx-let-pobedy.html</t>
+  </si>
+  <si>
+    <t>Косыгинские реформы
+Новое руководство СССР осторожно признает «наличие трудностей» в экономике страны. Предлагаемая главой правительства Алексеем Косыгиным программа мер — последний шанс изменить советскую хозяйственную модель</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/kosyginskie-reformy.html</t>
+  </si>
+  <si>
+    <t>Ижевский завод начинает выпуск мотоциклов, которые станут самыми распространенными в СССР — «ИЖ-Планета» и «ИЖ-Юпитер»</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/motocikly-izh-planeta-i-izh-yupiter.html</t>
+  </si>
+  <si>
+    <t>Леонов в открытом космосе
+Новое достижение советской космонавтики — 18 марта человек впервые выходит в открытый космос</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/leonov-v-otkrytom-kosmose.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+На 26-м Международном авиасалоне в Ле-Бурже под Парижем Советский Союз демонстрирует свою гражданскую авиацию нового поколения
+Новый базовый самолет ТУ-134
+Флагман — межконтинентальный ИЛ-62
+Вертолет Ми-10
+Наибольший фурор производит Ан-22 </t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/novaya-aviaciya.html</t>
+  </si>
+  <si>
+    <t>Автоматизация розничной торговли почти вытесняет человека из продажи прохладительных напитков и билетов на электрички.</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/avtomaty-v-torgovle.html</t>
+  </si>
+  <si>
+    <t>Кинокомедия Леонида Гайдая «Операция “Ы”» и другие приключения Шурика» собирает 69 миллионов зрителей за первый год проката, выйдя по посещаемости на первое место за всю историю советского кино</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/operaciya-y-geroy-shurik.html</t>
+  </si>
+  <si>
+    <t>Индо-пакистанский инцидент
+В августе — вооруженные столкновения, в сентябре — уже полномасштабная война между Индией и Пакистаном из-за Кашмира</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/indo-pakistanskiy-incident.html</t>
+  </si>
+  <si>
+    <t>Альметьевск</t>
+  </si>
+  <si>
+    <t>Стартовая точка нефтепровода</t>
+  </si>
+  <si>
+    <t>Пицунда</t>
+  </si>
+  <si>
+    <t>Отправлен в отставку Никита Хрущев. Решение принято на пленуме ЦК, Хрущев в это время (14/10/1964) находится в Пицунде</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В мае Никита Хрущев приезжает в Египет и объявляет о присвоении звания Героя Советского Союза президенту Объединенной Арабской Республики Насеру и вице-президенту Амеру. В самом СССР это никого не обрадует
+</t>
+  </si>
+  <si>
+    <t>Каир</t>
+  </si>
+  <si>
+    <t>Год дает два знаковых образца сельхозтехники — ленинградский колесный трактор «Кировец» и волгоградский гусеничный ДТ-75</t>
+  </si>
+  <si>
+    <t>Ленинград</t>
+  </si>
+  <si>
+    <t>В юбилейный год воздается должное тем, чьи подвиги прежде вообще не признавались. Посмертно награждены подпольщики, погибшие в немецком тылу и концлагерях; звание Героя Советского Союза присваивают замученному в плену генералу Дмитрию Карбышеву и резиденту разведки в Риме Льву Маневичу. Ордена получают 26 летчиков французского авиаполка «Нормандия — Неман» — они воевали с советской стороны; о Западном фронте — и вообще об англо-американских союзниках — если и говорится, то снисходительно — как о сугубо второстепенном факторе.</t>
+  </si>
+  <si>
+    <t>Ижевск</t>
+  </si>
+  <si>
+    <t>Модель АТ-114, автоматы газированной воды, летом стоят возле остановок транспорта и круглый год — внутри больших магазинов. На них слева прорезь для 1 копейки — вода без сиропа, справа — прорезь для 3 копеек — с сиропом. Ниже ниша: слева — место, куда ставится заполняемый стакан, справа — мойка. В ее гнездо стакан опрокидываешь кверху дном, нажимаешь — струйки окатывают посудину изнутри. Только в Москве — 10 тысяч таких автоматов, специальная организация «Торгмонтаж» устанавливает и обслуживает их по всей стране</t>
+  </si>
+  <si>
+    <t>24 июля на 17 параллели, разделяющей Северный и Южный Вьетнам, советские зенитки сбивают четыре американских самолета. СССР переходит к активному и открытому техническому участию во вьетнамской войне</t>
+  </si>
+  <si>
+    <t>Ханой</t>
+  </si>
+  <si>
+    <t>https://namednibook.ru/vetnam-kak-kuba.html</t>
+  </si>
+  <si>
+    <t>Кашмир</t>
+  </si>
+  <si>
+    <t>Китай. Стихийное бедствие с самым большим в мировой истории числом задокументированных жертв: из-за разлива рек в Китае гибнет 3,7 миллиона человек</t>
+  </si>
+  <si>
+    <t>Нанкин</t>
+  </si>
+  <si>
+    <t>5 декабря в Москве уничтожен самый большой в мире православный собор — построенный в честь победы над Наполеоном храм Христа Спасителя. На его месте должен встать главный храм новой власти — Дворец Советов</t>
+  </si>
+  <si>
+    <t>Начало японской агрессии на континенте: островная империя оккупировала северо-восточные провинции Китая — плацдарм для возможного нападения на СССР</t>
+  </si>
+  <si>
+    <t>Мукден</t>
+  </si>
+  <si>
+    <t>Главный эстрадный автор русского зарубежья и самый популярный эмигрантский исполнитель записывают три танго, томительные мелодии которых станут позывными эпохи</t>
+  </si>
+  <si>
+    <t>Рига</t>
+  </si>
+  <si>
+    <t>Принят комплекс ГТО — «Готов к труду и обороне!» — нормативы физической способности граждан СССР на подвиги в мирное и военное время</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нормы ГТО устанавливают задания по бегу, прыжкам, подтягиванию на турнике, гребле, лыжам, плаванию. Из дисциплин с военным уклоном: метание муляжа гранаты, перенос патронного ящика (32 кг) на 50 метров, движение в противогазе 1 км. Стандарты рассчитаны на молодежь и ранжированы для женщин до 32 лет, для мужчин — до 35. </t>
+  </si>
+  <si>
+    <t>Основан трест-государство — управление НКВД, которое заменит советскую власть на десятой части территории страны. Ведущий предвоенный золотодобытчик, «Дальстрой» будет обеспечивать валютой закупки оборудования для ускоренной индустриализации СССР</t>
+  </si>
+  <si>
+    <t>Магадан</t>
+  </si>
+  <si>
+    <t>В 1932 году «Севвостлаг» начинается с 12 тысяч узников. Считается, что первую зиму не пережил никто из зэков, конвоиров и сторожевых собак. В нечеловеческих условиях холода и голода вручную ведутся колоссальные земляные работы. Выложенную костьми 600-километровую трассу до верховьев Колымы закончат в 1936-м, а в следующем году «Дальстрой» с результатом 51,5 тонны превзойдет добычу золота в Калифорнии. В 1940-м производство золота достигнет пика — 80 тонн, разведают залежи «металла №2» — олова — и к «Дальстрою» прирежут богатую им Чукотку.</t>
+  </si>
+  <si>
+    <t>Первый в стране звуковой фильм будут смотреть несколько поколений советских зрителей. В заграничный прокат «Путевка в жизнь» выходит как киноманифест СССР: технически передовая экранная повесть о превращении беспризорника в нового человека</t>
+  </si>
+  <si>
+    <t>В Испании свергли монархию. Бывшая великая держава снова привлекает внимание остального мира. Изгнав короля, Испания вступает в полосу политических конфликтов, которые приведут к гражданской войне</t>
+  </si>
+  <si>
+    <t>В Нью-Йорке построен самый знаменитый и самый высокий вплоть до 1970-х годов небоскреб, символ Америки для всего мира</t>
+  </si>
+  <si>
+    <t>После жестокого убийства за Уралом двух деревенских мальчиков госпропаганда создает легенду о Павлике Морозове. Пионер сообщил советской власти, что его отец помогает кулакам. Отца посадили, а Павлик продолжал свои разоблачения, и с ним расправилась его родня. Подвиг юного патриота будет теперь знаменем коллективизации и примером для подражания нескольких поколений пионеров</t>
+  </si>
+  <si>
+    <t>Тавда, Свердловская область</t>
+  </si>
+  <si>
+    <t>Основан стратегический форпост на Дальнем Востоке, центр производства самолетов и кораблей</t>
+  </si>
+  <si>
+    <t>Комсомольск-на-Амуре</t>
+  </si>
+  <si>
+    <t>Начала работать главная электростанция советской индустриализации и на десятилетия-самая знаменитая ГЭС страны, Днепровская</t>
+  </si>
+  <si>
+    <t>Днепропетровск</t>
+  </si>
+  <si>
+    <t>В городах Советского Союза вводится паспортная система. Отныне нельзя поселиться на новом месте и устроиться на работу без прописки. А беспаспортные колхозники и вовсе не могут покидать деревню</t>
+  </si>
+  <si>
+    <t>В СССР начат массовый выпуск автомобилей. Первые легковые модели — это советские «форды»</t>
+  </si>
+  <si>
+    <t>С 1929 года компания Форда поставляет в СССР комплектующие, часть заводского оборудования, чертежи вплоть до планировки цехов, участвует в архитектурно-строительных работах и ведет технический надзор. К январю 1932-го в Нижнем Новгороде готов крупнейший в Европе автозавод, способный выпускать до 140 тысяч машин ежегодно</t>
+  </si>
+  <si>
+    <t>Забастовки в текстильной Ивановской области перерастают в мятеж. Власти идут на уступки, улучшая снабжение рабочих и разрешая закрытые было рынки</t>
+  </si>
+  <si>
+    <t>Райцентр Вичуга семь лет назад образовали из нескольких рабочих поселков — центров текстильной промышленности с царских времен. 1 апреля 1932-го ткачам резко снижена месячная выдача хлеба по карточкам: рабочим с 12 до 8 кг, иждивенцам (старики и дети) — с 8 до 4 кг. После 15 лет советской власти жить стало явно хуже, чем до революции. Фабрики начали бастовать с 6-го, а к 9 апреля в Вичуге и окрестностях работу бросили до 20 тысяч человек.</t>
+  </si>
+  <si>
+    <t>Вичуга</t>
+  </si>
+  <si>
+    <t>Эмигрант, называющий себя русским фашистом, застрелил французского президента Поля Думера. Не подтвердятся версии ни «красного» заговора, ни «белого», ни «коричневого»</t>
+  </si>
+  <si>
+    <t>Основанный при Михаиле Романове город Козлов переименован в Мичуринск в честь живущего там селекционера, автора новых сортов фруктов и ягод. «Преобразователь природы» Иван Мичурин — пример для всех советских садоводов, и работающие на пришкольных участках пионеры зовутся «юными</t>
+  </si>
+  <si>
+    <t>Мичуринск</t>
+  </si>
+  <si>
+    <t>В СССР создана первая подпольная антисталинская организация коммунистов. Быстро ее обнаружив, НКВД арестовывает зачинщиков. Основатель организации Мартемьян Рютин и его товарищи будут расстреляны</t>
+  </si>
+  <si>
+    <t>Утверждая окончательно вернувшегося в СССР Максима Горького главным деятелем советской культуры и отчасти — вторым человеком в стране, в честь него переименовывают Нижний Новгород, главную улицу Москвы и множество центральных учреждений культуры и отдыха</t>
+  </si>
+  <si>
+    <t>В СССР создан второй металлургический центр — на Южном Урале и в Западной Сибири: заработали Магнитогорский и Кузнецкий заводы</t>
+  </si>
+  <si>
+    <t>Магнитогорск</t>
+  </si>
+  <si>
+    <t>В 1930-м, через год как стартовали стройки, принято постановление о форсировании работ. Резко выросли ассигнования, обеспечение техникой и материалами, квалифицированные кадры перебрасывают из других городов, а на «Магнитке» даже введено закрытое продовольственное снабжение по нормам Москвы и Ленинграда. Уральский завод американцы проектировали частично, сибирский полностью спланировала чикагская фирма Freyn Engineering. Оборудование заказывали в Германии, где кредиты дешевле, отчасти в Англии и Франции, и счет привлеченным иностранным специалистам идет на сотни. По западным оценкам, металлургические гиганты обошлись не менее чем по $90 млн каждый ($1,25 млрд в начале XXI века).</t>
+  </si>
+  <si>
+    <t>После особо благоприятного 1930 года, когда собрали 84 млн тонн зерна, в 1931-м урожай составил 70 млн тонн, а в 1932-м — 67 млн тонн. Но и этого вполне достаточно, чтобы прокормить население, не потерять скот, посеять на следующий год и отложить про запас. Голод 1932-1933 годов — первый в стране, который не вызван недородом, засухой, саранчой или войной. Причина — в способе хозяйствования</t>
+  </si>
+  <si>
+    <t>Харьков</t>
+  </si>
+  <si>
+    <t>Жертвы голода: УССР - 3,5 млн, РСФСР - 2,5 млн., Казахстан - 1 млн. Надорвавшись на коллективизации, районы «зернопроизводящей зоны» Ураины, России и Казахстана голодают и вымирают: в конце 1922-го — первой половине 1933 года от недоедания гибнет более 6 миллионов человек. Власти замалчивают катастрофу и почти не помогают населению, ломая голодом сопротивление крестьян «колхозному строю»</t>
+  </si>
+  <si>
+    <t>Чистка. Весь год в организациях ВКП(б) идет третья и официально последняя генеральная чистка. Из партии исключают 400 тысяч человек — половину всех «изгнанных из рядов» за время таких кампаний</t>
+  </si>
+  <si>
+    <t>Поздно вечером 27 февраля в Берлине горит здание Рейхстага — германского парламента. В поджоге обвинят коммунистов, но на суде болгарин Димитров победит «наци № 2» Геринга. Немедленно принимается первый из чрезвычайных законов, фактически отменяющих конституцию, далее они последуют один за другим.</t>
+  </si>
+  <si>
+    <t>на Нюрнбергском процессе два свидетеля дадут показания о причастности к поджогу самих нацистов. Якобы десять штурмовиков во главе с Карлом Эрнстом принесли в Рейхстаг канистры с бензином. В любом случае гитлеровцы постарались сполна воспользоваться пожаром — как если бы он был долгожданным.</t>
+  </si>
+  <si>
+    <t>Лидер нацистской партии Адольф Гитлер стал канцлером Германии. За полтора года бывшая республика превратится в абсолютную диктатуру вождя-фюрера, главы государства и правительства. До конца десятилетия немецкий фашизм для советской пропаганды — высшее зло мирового империализма</t>
+  </si>
+  <si>
+    <t>Русскому писателю впервые присуждена Нобелевская премия. В СССР этим очень недовольны: лауреат —обличитель большевиков и эмигрант Иван Бунин</t>
+  </si>
+  <si>
+    <t>Закончена первая целиком лагерная стройка — Беломорско-Балтийский канал, прославляемый как «школа социалистической перековки» зэков</t>
+  </si>
+  <si>
+    <t>Медвежьегорск</t>
+  </si>
+  <si>
+    <t>Единовременно на объектах держат до 126 тысяч человек, водный путь ведут, как при Петре: голые руки, лопаты, тачки, бревенчатые плотины и ворота шлюзов. Официальные данные людских потерь — 12,3 тысячи, по позднейшим оценкам — 50 тысяч и более.</t>
+  </si>
+  <si>
+    <t>Принято правительственное постановление «О реконструкции Сочинского курорта» — новой ударной стройки. Черноморский райцентр превращают в столицу советского отдыха</t>
+  </si>
+  <si>
+    <t>СССР прекратил импорт тракторов и с пуском очередного завода в Челябинске создал новую отрасль машиностроения, поначалу сплошь лицензионную. Трактор — признак социалистического преобразования села наряду с коллективизацией: вместо единоличника с собственными лошадьми — колхоз на государственных «стальных конях»</t>
+  </si>
+  <si>
+    <t>Челябинск</t>
+  </si>
+  <si>
+    <t>Теперь подошел черед Челябинского тракторного — он специализируется на мощных гусеничных машинах С-60, прототип которых — американский «Катерпиллер». Через год «Красный путиловец» перейдет с устаревшего «Фордзона» на «Универсал» (версия американского трактора «Фармсшл»). Сталинград и Харьков вскоре освоят гусеничную модель, а Челябинск выпустит С-65 «Сталинец» — первый советский трактор с дизельным двигателем.</t>
+  </si>
+  <si>
+    <t>Вступает в должность 32-й американский президент, который будет править дольше всех в истории США. Демократ Франклин Делано Рузвельт победил на выборах, предложив «новый курс» для выхода из кризиса. Во внешней политике частью новизны окажутся установленные в первый год президентства дипломатические отношения с СССР</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> На лето 1932-го приходится нижняя точка падения производства — до уровня 1913 года, безработных — 23,6% населения. 8 ноября за Рузвельта подано на 7 млн голосов больше, чем за шедшего на второй срок президента-республиканца Гувера. У демократов также большинство в обеих палатах Конгресса.</t>
+  </si>
+  <si>
+    <t>Снята первая в СССР музыкальная кинокомедия — лучшее творение Григория Александрова, главного мастера жанра. Эталонный образец «Голливуда по-советски», фильм основывает в стране индустрию зрелищ и зажигает суперзвезд: Любовь Орлову и Леонида Утесова. Исаак Дунаевский на два десятилетия — главный отечественный кинокомпозитор</t>
+  </si>
+  <si>
+    <t>Создан абсолютный киношедевр, от которого в восторге несколько поколений народа, вождей и профессионалов. Фильм, его герои и ключевые реплики входят в русский фольклор XX века</t>
+  </si>
+  <si>
+    <t>Ассоциация кинокритиков США назовет «Чапаева» лучшим фильмом на иностранном языке 1935 года, он получит Гран-при Парижской всемирной выставки. Васильевы сразу признаны классиками</t>
+  </si>
+  <si>
+    <t>Самая высокопоставленная жертва покушения в советской истории: 1 декабря застрелен плен Политбюро, секретарь ЦК, глава Ленинграда и всего Северо-Запада страны Сергей Киров. Поднимается новая волна репрессий, которая будет нарастать до конца десятилетия</t>
+  </si>
+  <si>
+    <t>Опубликовано самое популярное произведение из относимых к социалистическому реализму. Неотличимый от публичного образа автора — Николая Островского, главный герой — Павка Корчагин превратится в советского святого</t>
+  </si>
+  <si>
+    <t xml:space="preserve">с 23 лет Островский — обездвиженный инвалид. А вскоре и слепой. Пока еще сохранялись остатки зрения, была закончена книга о котовцах, но единственный экземпляр рукописи потеряла почта.
+«Как закалялась сталь» автор пишет с помощью придуманного им «транспоратора»: на закрепленном над койкой пюпитре лист бумаги прижат картонкой с прорезями — так выводимые карандашом строчки не налезают друг на друга. Потом не по силам даже это, и вторую часть романа Островский надиктует.
+</t>
+  </si>
+  <si>
+    <t>Из приграничного к России Харькова столица второй по значению союзной республики переезжает в Киев, «природный географический центр» Украины. Это должно способствовать «большевистской украинизации»</t>
+  </si>
+  <si>
+    <t>Киев</t>
+  </si>
+  <si>
+    <t>Создано единое карательное ведомство: Народный комиссариат внутренних дел СССР, где служат и милиционеры, и чекисты. Для наркома введут полицейское маршальское звание</t>
+  </si>
+  <si>
+    <t>Разбился «Осоавиахим-1». Мировые державы штурмуют стратосферу. СССР ставит два мировых рекорда высоты. Второй приводит к гибели экипажа стратостата, но полеты продолжатся</t>
+  </si>
+  <si>
+    <t>Кунцево</t>
+  </si>
+  <si>
+    <t>Внутри Дальневосточного края (впоследствии — Хабаровского) создана Еврейская автономная область — единственное в СССР национальное образование вне мест исторического проживания титульной нации. Советское решение «еврейского вопроса» провалится — евреи в тайгу не поедут</t>
+  </si>
+  <si>
+    <t>Биробиджан</t>
+  </si>
+  <si>
+    <t>По плану к концу первой пятилетки здесь должно было быть 60 тысяч человек титульной национальности. Приехало же 20,5 тысячи, из которых более 12 тысяч на месте не закрепились. Основаны скорняжная, сапожная и кирпичная артели, но мало желающих стать таежными землепашцами</t>
+  </si>
+  <si>
+    <t>Советскому физику, давно работающему в Кембридже, во время отпуска на родине запрещают возвращаться в Великобританию. Ученому дадут в Москве целый институт, но долгие годы не будут выпускать заграницу</t>
+  </si>
+  <si>
+    <t>Академиком Капица станет в 1939-м. В войну прежде всего за работы по нужному армии жидкому кислороду его осыплют наградами: две Сталинские премии, два ордена Ленина, звезда Героя Соцгруда.</t>
+  </si>
+  <si>
+    <t>За четыре дня до наступления 1936 года решением высшего руководства страны в СССР возвращена новогодняя елка</t>
+  </si>
+  <si>
+    <t>С башен Московского Кремля и с Исторического музея снимают царских двуглавых орлов. На кремлевские башни водружают звезды — сначала металлические, а затем стеклянные</t>
+  </si>
+  <si>
+    <t>На очередном съезде нацистской партии в Нюрнберге Гитлер представляет законы, охраняющие «чистоту германской расы». Главная угроза «загрязнения» исходит от евреев</t>
+  </si>
+  <si>
+    <t>Нюрнберг</t>
+  </si>
+  <si>
+    <t>До конца 1935 года евреев уволят из чиновников, они не могут быть профессорами, адвокатами, врачами в поликлиниках, работниками учреждений культуры. Всего примут сотни антиеврейских указов и инструкций, и еще множество акций выдадут за общественные инициативы.</t>
+  </si>
+  <si>
+    <t>22-летний Сергей Михалков публикует первую из своих поэм про Дядю Стёпу, москвича огромного роста. Герой потом станет образцовым милиционером, а автор — образцовым деятелем литературы</t>
+  </si>
+  <si>
+    <t>В Красной армии вводят персональные звания для «младшего, среднего и старшего комсостава» — почти такие, как до революции. Учрежден высший воинский чин: маршальский, которого прежде в России не было</t>
+  </si>
+  <si>
+    <t>18 мая разбился самый большой самолет в мире, флагман советской авиации «Максим Горький». Лайнер попробуют восстановить, но его преемник не прославится</t>
+  </si>
+  <si>
+    <t>Арктическая экспедиция на пароходе «Челюскин» чуть не прошла весь Северный морской путь, а потом чуть не погибла, но была эвакуирована со льдины героями-летчиками. Потому что огромная могучая родина, послав на край света своих сыновей, всегда спасет их из любой беды</t>
+  </si>
+  <si>
+    <t>15 мая открыто движение по первой линии Московского метрополитена. Построено самое роскошное подземное сооружение в мировой истории — признак «образцового социалистического города» и заветный атрибут столичности для всех советских мегаполисов</t>
+  </si>
+  <si>
+    <t>Луганск</t>
+  </si>
+  <si>
+    <t>На Луганской шахте установлен тщательно подготовленный рекорд: забойщик Стаханов при норме 7 тонн за смену добывает 102. С этого начинается стахановское движение — кампания по повышению производительности труда и созданию советской рабочей аристократии</t>
+  </si>
+  <si>
+    <t>В январе умирает Георг V. Трон наследует его старший сын, принимая имя Эдуарда VIII. Но в декабре он отрекается от престола в пользу своего младшего брата, который становится Георгом VI</t>
+  </si>
+  <si>
+    <t>Для советского восприятия британские династические проблемы — феодальные пережитки. Однако к Георгу VI отношение ненадолго потеплеет: во времена союзничества по антигитлеровской коалиции король наградит Сталинград рыцарским мечом, который Черчилль вручит Сталину на Тегеранской конференции</t>
+  </si>
+  <si>
+    <t>С сольных концертов в Москве начинается всесоюзная слава Вадима Козина — главного эстрадного тенора довоенного СССР</t>
+  </si>
+  <si>
+    <t>Победу социализма, о которой говорилось на XVII съезде ВКП(б), оформляют новой Конституцией СССР. Она щедро раздает демократические права и свободы, которыми невозможно воспользоваться</t>
+  </si>
+  <si>
+    <t>«Под Конституцию» меняют национально-административное деление СССР. Ликвидирована Закавказская федерация, Азербайджан, Армения и Грузия входят теперь в Союз напрямую. Казахстан и Киргизия отныне — союзные республики, а не автономии в составе РСФСР. «Республик-сестер», образующих СССР, теперь 11.</t>
+  </si>
+  <si>
+    <t>Два года возле Сталина находится новый «ближайший соратник». Немедленно создан культ очередного «стального наркома», беспощадного борца с «врагами народа». Вознесенный на высшие посты герой потом бесследно исчезнет</t>
+  </si>
+  <si>
+    <t>Военные подняли мятеж против правительства испанских левых. Путчистов поддержат Германия и Италия, правительство — СССР и интербригады со всего света. Мятежники победят, и их командующий, генералиссимус Франко, на 35 лет установит свою диктатуру</t>
+  </si>
+  <si>
+    <t>Когда рост населения в СССР причислили к достижениям социализма, рождаемость снизилась. Власть запрещает аборты, но их будут делать подпольно</t>
+  </si>
+  <si>
+    <t>Первый московский Процесс. На первом показательном политическом суде складывается канон для последующих: несколько знаменитостей из «ленинской гвардии» и активисты помельче сознаются в чудовищных преступлениях, их казнят, население шумно приветствует приговор. Определение «враг народа» проживет до конца сталинских лет</t>
+  </si>
+  <si>
+    <t>Обе Олимпиады 1936 года проходят в нацистской Германии. Летние игры в Берлине особенно угрожающе демонстрируют мощь, идеальный порядок и воинственность. Но подтвердить расовое превосходство арийцев не удается: лучшим спортсменом Олимпиады становится чернокожий американский бегун</t>
+  </si>
+  <si>
+    <t>Учреждено почетное звание для классиков советского искусства. Высший титул подразумевает одновременно официальную оценку и признание широкой публики. Но так получается не всегда</t>
+  </si>
+  <si>
+    <t>Фашистский режим Муссолини, победив в войне, объявляет Эфиопию частью «новой Римской империи»</t>
+  </si>
+  <si>
+    <t>Адис-Абеба</t>
+  </si>
+  <si>
+    <t>Карьеру в Москве начинает Михаил Румянцев, незадолго до этого взявший псевдоним Карандаш. Он быстро станет знаменитостью, на десятилетия — главным клоуном страны</t>
+  </si>
+  <si>
+    <t>Пропаганда называет детей «единственным привилегированным классом в СССР»: родившиеся после революции, они — первое советское поколение, будущее страны. Забота вождя о юных гражданах получает плакатное воплощение в фотографии Сталина с девочкой-буряткой. Ее родители вскоре окажутся «врагами народа», но пропаганде это не помешает</t>
+  </si>
+  <si>
+    <t>Родители девочки на фото …Спасибо товарищу Сталину… были репрессированы</t>
+  </si>
+  <si>
+    <t>Главным живым писателем-классиком советской страны теперь считается «третий Толстой» русской литературы. У него выходит повесть о Сталине и экранизирован роман о Петре</t>
+  </si>
+  <si>
+    <t>6 января проходит всесоюзная перепись населения. Ее материалы не устраивают власть и объявлены «дефектными». Руководителей статистического ведомства репрессируют</t>
+  </si>
+  <si>
+    <t>Добиваясь реванша за поражение в Первой мировой войне, Гитлер находит для Германии союзников в будущей Второй мировой. Страны «оси» объявляют о своих агрессивных намерениях и начинают их осуществлять</t>
+  </si>
+  <si>
+    <t>18 июня 1937-го командир Чкалов, второй пилот Георгий Байдуков, штурман Александр Беляков вылетают из Москвы через Северный полюс в Америку</t>
+  </si>
+  <si>
+    <t>Ванкувер, штат Вашингтон</t>
+  </si>
+  <si>
+    <t>Впервые участвуя во Всемирной выставке, Советский Союз демонстрирует себя как самую исключительную страну на свете, соревнуясь в этом с гитлеровской Германией</t>
+  </si>
+  <si>
+    <t>Сопровождаемый супругой, в Москву из Парижа прибыл знаменитый русский писатель Александр Куприн. Безнадежно больной, он хочет умереть на родине</t>
+  </si>
+  <si>
+    <t>Полтора года под грохот пропаганды бушует непрерывная кампания репрессий. Начавшись с процесса против бывших вождей, государственный террор распространится на местную номенклатуру, армейскую верхушку, «социально чуждых» горожан, «недобитых» кулаков, на священнослужителей и национальные диаспоры. Фантастические обвинения в разных лево-правых «измах» и работе на империалистические разведки невозможно повторить без бумажки, имеет хождение обобщенное понятие «враг народа». 1937 год останется в отечественной истории мрачным символом</t>
+  </si>
+  <si>
+    <t>6 мая при посадке в США сгорает самое большое воздушное судно в мире — гигантский цеппелин «Гинденбург». Отныне прекращаются все полеты пассажирских дирижаблей</t>
+  </si>
+  <si>
+    <t>Построенный в 1936-м, «Гинденбург» год пробыл лидером мирового воздухоплавания. Он совершал регулярные рейсы из Германии на восточное побережье США и в Бразилию. 245-метровая гондола имеет четыре дизельных двигателя, везет 72 пассажира и 100 тонн груза со скоростью до 135 км/ч</t>
+  </si>
+  <si>
+    <t>18 февраля ушел из жизни один из самых популярных вождей — Серго Орджоникидзе. Согласно официальному сообщению, произошел инфаркт. Почти сразу возникли слухи, что это — самоубийство или даже убийство. 25 лет спустя объявят: Орджоникидзе застрелился</t>
+  </si>
+  <si>
+    <t>В один год появляется по самой знаменитой песне и в ритме главного медленного танца эпохи — танго, и в ритме главного быстрого — фокстрота</t>
+  </si>
+  <si>
+    <t>Ежи Петерсбурскому выпадет несколько лет советской биографии. С началом Второй мировой войны он окажется в Польше в зоне оккупации Красной армии. Став гражданином СССР и зовясь Юрием Яковлевичем, Петерсбурский возглавит джаз-оркестр Белоруссии и напишет для него вальс «Синий платочек» — одну из главных песен Великой Отечественной</t>
+  </si>
+  <si>
+    <t>Берия возглавил НКВД. Главы НКВД сменялись каждые два года, но очередной нарком останется возле Сталина до самой смерти вождя. Лаврентию Берии для начала поручено свернуть Большой террор</t>
+  </si>
+  <si>
+    <t>Пролог к «окончательному решению еврейского вопроса»: до сих пор у нации париев отнимали германское гражданство, а теперь жилье, имущество и саму жизнь</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Грабежи и мародерство — массовые, пожарами охвачено 267 синагог, разрушено полностью или частично 7 тысяч строений. Не менее 90 евреев погибло. Мостовые усыпаны битым стеклом — отсюда название, которое войдет в историю.</t>
+  </si>
+  <si>
+    <t>Британия и Франция подписывают соглашение о передаче Гитлеру частей Чехословакии, населенных немцами. Но это «умиротворение агрессора» только приблизит войну</t>
+  </si>
+  <si>
+    <t>Мюнхен</t>
+  </si>
+  <si>
+    <t>Написана знаменитейшая советская песня, одна из самых главных во всей истории России. Кроме оригинала, в мире будет звучать множество ее вариантов на разных языках</t>
+  </si>
+  <si>
+    <t>Партруководителя Москвы назначают главой Украины. Как крупнейший региональный деятель он войдет в высшее руководство страны, где пробудет четверть века</t>
+  </si>
+  <si>
+    <t>На Северном полюсе впервые сели самолеты — они доставили экспедицию, которой предстоит девять месяцев дрейфовать на льдине. За подвигом полярников следит весь СССР</t>
+  </si>
+  <si>
+    <t>Японские войска пытаются захватить несколько сопок на советско-китайской границе. После двух недель боев СССР закрепит свой контроль над этой территорией. Конфликт окончательно превращает две страны в стратегических противников</t>
+  </si>
+  <si>
+    <t>Озеро Хасан</t>
+  </si>
+  <si>
+    <t>Через четыре года после учреждения «военного» геройского звания появляется такое же «мирное». Чаще всех награду будут получать вожди, колхозники и корифеи советской науки и культуры</t>
+  </si>
+  <si>
+    <t>Аншлюс. Первая жертва гитлеровской агрессии: при попустительстве великих держав Австрия поглощена Германией</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2045,14 +2857,6 @@
       <u/>
       <sz val="18"/>
       <color theme="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="18"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2079,7 +2883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2087,39 +2891,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="justify" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2426,21 +3208,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:G306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B299" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B298" sqref="B298:B306"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
-    <col min="3" max="3" width="136.5703125" customWidth="1"/>
-    <col min="4" max="4" width="255.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="100" style="3" customWidth="1"/>
+    <col min="4" max="4" width="75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="80.28515625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2451,2250 +3240,4407 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="162.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="395.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="162.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="139.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="139.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="162.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="186" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="139.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="162.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="209.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="232.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="232.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="116.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" ht="69.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>532</v>
-      </c>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="113" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="186" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="255.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="162.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="162.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="139.5" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="3">
+        <v>1962</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F182" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="3">
+        <v>1962</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F183" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B184" s="3">
+        <v>1962</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="F184" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B185" s="3">
+        <v>1962</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F185" s="3">
+        <v>2</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B186" s="3">
+        <v>1962</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="F186" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" s="3">
+        <v>1962</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F187" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B188" s="3">
+        <v>1962</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="F188" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" s="3">
+        <v>1961</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F189" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B190" s="3">
+        <v>1961</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F190" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="139.5" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="3">
+        <v>1961</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F191" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="B192" s="3">
+        <v>1961</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F192" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="139.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="B193" s="3">
+        <v>1961</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F193" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B194" s="3">
+        <v>1961</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="F194" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="255.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="3">
+        <v>1961</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F195" s="3">
+        <v>2</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="255.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="B196" s="3">
+        <v>1961</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="F196" s="3">
+        <v>1</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="186" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B197" s="3">
+        <v>1961</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F197" s="3">
+        <v>1</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="279" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B198" s="3">
+        <v>1961</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="F198" s="3">
+        <v>1</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B199" s="3">
+        <v>1961</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F199" s="3">
+        <v>1</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B200" s="3">
+        <v>1961</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="F200" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" s="3">
+        <v>1961</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F201" s="3">
+        <v>1</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="209.25" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B202" s="3">
+        <v>1963</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="F202" s="3">
+        <v>1</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" s="3">
+        <v>1963</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="F203" s="3">
+        <v>1</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="162.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B204" s="3">
+        <v>1963</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F204" s="3">
+        <v>1</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="139.5" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B205" s="3">
+        <v>1963</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="F205" s="3">
+        <v>1</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B206" s="3">
+        <v>1963</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F206" s="3">
+        <v>1</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="139.5" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B207" s="3">
+        <v>1963</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="F207" s="3">
+        <v>2</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="139.5" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208" s="3">
+        <v>1963</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F208" s="3">
+        <v>2</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="209.25" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" s="3">
+        <v>1963</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="F209" s="3">
+        <v>1</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B210" s="3">
+        <v>1964</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="F210" s="3">
+        <v>1</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B211" s="3">
+        <v>1964</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="F211" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" s="3">
+        <v>1964</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F212" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B213" s="3">
+        <v>1964</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="F213" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214" s="3">
+        <v>1964</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F214" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B215" s="3">
+        <v>1964</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E215" s="5"/>
+      <c r="F215" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B216" s="3">
+        <v>1964</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E216" s="5"/>
+      <c r="F216" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217" s="3">
+        <v>1964</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="F217" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" s="3">
+        <v>1964</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="F218" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B219" s="3">
+        <v>1965</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="F219" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="302.25" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220" s="3">
+        <v>1965</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="F220" s="3">
+        <v>2</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221" s="3">
+        <v>1965</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="F221" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B222" s="3">
+        <v>1965</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="F222" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B223" s="3">
+        <v>1965</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="F223" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="186" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B224" s="3">
+        <v>1965</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="F224" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="279" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225" s="3">
+        <v>1965</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="F225" s="3">
+        <v>2</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226" s="3">
+        <v>1965</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="F226" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B227" s="3">
+        <v>1965</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="F227" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="B228" s="3">
+        <v>1965</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F228" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="B229" s="3">
+        <v>1931</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E229" s="5"/>
+      <c r="F229" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B230" s="3">
+        <v>1931</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F230" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B231" s="3">
+        <v>1931</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F231" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B232" s="3">
+        <v>1931</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F232" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="186" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B233" s="3">
+        <v>1931</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F233" s="3">
+        <v>2</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="279" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="B234" s="3">
+        <v>1931</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F234" s="3">
+        <v>1</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B235" s="3">
+        <v>1931</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F235" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B236" s="3">
+        <v>1931</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F236" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B237" s="3">
+        <v>1931</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F237" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="162.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B238" s="3">
+        <v>1932</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F238" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B239" s="3">
+        <v>1932</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F239" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B240" s="3">
+        <v>1932</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F240" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B241" s="3">
+        <v>1932</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F241" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="186" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="B242" s="3">
+        <v>1932</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F242" s="3">
+        <v>1</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="232.5" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B243" s="3">
+        <v>1932</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F243" s="3">
+        <v>1</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B244" s="3">
+        <v>1932</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F244" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="139.5" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B245" s="3">
+        <v>1932</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F245" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B246" s="3">
+        <v>1932</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F246" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="B247" s="3">
+        <v>1932</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F247" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="372" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B248" s="3">
+        <v>1932</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F248" s="3">
+        <v>1</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="209.25" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="B249" s="3">
+        <v>1933</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F249" s="3">
+        <v>1</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B250" s="3">
+        <v>1933</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F250" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="162.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="10" customFormat="1" ht="302.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="B251" s="3">
+        <v>1933</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F251" s="3">
+        <v>1</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B252" s="3">
+        <v>1933</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F252" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B253" s="3">
+        <v>1933</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F253" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="139.5" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="B254" s="3">
+        <v>1933</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F254" s="3">
+        <v>1</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B255" s="3">
+        <v>1933</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F255" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="232.5" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B256" s="3">
+        <v>1933</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F256" s="3">
+        <v>1</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="162.75" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B257" s="3">
+        <v>1933</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F257" s="3">
+        <v>1</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="139.5" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" s="3">
+        <v>1934</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F258" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B259" s="3">
+        <v>1934</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F259" s="3">
+        <v>1</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B260" s="3">
+        <v>1934</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F260" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="302.25" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261" s="3">
+        <v>1934</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F261" s="3">
+        <v>1</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B262" s="3">
+        <v>1934</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F262" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B263" s="3">
+        <v>1934</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F263" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="B264" s="3">
+        <v>1934</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F264" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="162.75" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B265" s="3">
+        <v>1934</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F265" s="3">
+        <v>1</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B266" s="3">
+        <v>1934</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F266" s="3">
+        <v>2</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="B267" s="3">
+        <v>1934</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F267" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" s="3">
+        <v>1935</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F268" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B269" s="3">
+        <v>1935</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F269" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="139.5" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="B270" s="3">
+        <v>1935</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F270" s="3">
+        <v>1</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B271" s="3">
+        <v>1935</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F271" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B272" s="3">
+        <v>1935</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F272" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B273" s="3">
+        <v>1935</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F273" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B274" s="3">
+        <v>1935</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F274" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B275" s="3">
+        <v>1935</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F275" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="162.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B276" s="3">
+        <v>1936</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="F276" s="3">
+        <v>1</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B277" s="3">
+        <v>1936</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="F277" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="162.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B278" s="3">
+        <v>1936</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="F278" s="3">
+        <v>1</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B279" s="3">
+        <v>1936</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="F279" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B280" s="3">
+        <v>1936</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="F280" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B281" s="3">
+        <v>1936</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="F281" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="139.5" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B282" s="3">
+        <v>1936</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="F282" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="139.5" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B283" s="3">
+        <v>1936</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="F283" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B284" s="3">
+        <v>1936</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="F284" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="B285" s="3">
+        <v>1936</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="F285" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B286" s="3">
+        <v>1936</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="F286" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="139.5" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B287" s="3">
+        <v>1936</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="F287" s="3">
+        <v>2</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B288" s="3">
+        <v>1937</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="F288" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B289" s="3">
+        <v>1937</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="F289" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B290" s="3">
+        <v>1937</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="F290" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="B291" s="3">
+        <v>1937</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="F291" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B292" s="3">
+        <v>1937</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="F292" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B293" s="3">
+        <v>1937</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="F293" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="232.5" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B294" s="3">
+        <v>1937</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="F294" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="162.75" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B295" s="3">
+        <v>1937</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="F295" s="3">
+        <v>1</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B296" s="3">
+        <v>1937</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="F296" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="186" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B297" s="3">
+        <v>1937</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="F297" s="3">
+        <v>2</v>
+      </c>
+      <c r="G297" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="93" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B298" s="3">
+        <v>1938</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="F298" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B299" s="3">
+        <v>1938</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="F299" s="3">
+        <v>1</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="B300" s="3">
+        <v>1938</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="F300" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B301" s="3">
+        <v>1938</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="F301" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B302" s="3">
+        <v>1938</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="F302" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B303" s="3">
+        <v>1938</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="F303" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B304" s="3">
+        <v>1938</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="F304" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="93" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B305" s="3">
+        <v>1938</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="F305" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" s="10" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" s="10" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" s="7" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" s="10" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="10" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:4" s="10" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="1:4" s="10" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="1:4" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="1:4" s="10" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" s="10" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="1:4" s="10" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="1:4" s="10" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65" spans="1:4" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" spans="1:4" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="1:4" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68" spans="1:4" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="1:4" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="1:4" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="1:4" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="1:4" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" spans="1:4" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" spans="1:4" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" spans="1:4" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" spans="1:4" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" spans="1:4" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="1:4" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="1:4" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="D80" s="8"/>
-    </row>
-    <row r="81" spans="1:4" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D81" s="8"/>
-    </row>
-    <row r="82" spans="1:4" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="D82" s="8"/>
-    </row>
-    <row r="83" spans="1:4" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="D83" s="8"/>
-    </row>
-    <row r="84" spans="1:4" s="10" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="D84" s="8"/>
-    </row>
-    <row r="85" spans="1:4" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="D85" s="8"/>
-    </row>
-    <row r="86" spans="1:4" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="D86" s="8"/>
-    </row>
-    <row r="87" spans="1:4" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="D87" s="8"/>
-    </row>
-    <row r="88" spans="1:4" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D88" s="8"/>
-    </row>
-    <row r="89" spans="1:4" s="10" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="D90" s="8"/>
-    </row>
-    <row r="91" spans="1:4" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="D91" s="8"/>
-    </row>
-    <row r="92" spans="1:4" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="D92" s="8"/>
-    </row>
-    <row r="93" spans="1:4" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="D93" s="8"/>
-    </row>
-    <row r="94" spans="1:4" s="10" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D94" s="8"/>
-    </row>
-    <row r="95" spans="1:4" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="D95" s="8"/>
-    </row>
-    <row r="96" spans="1:4" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="D96" s="8"/>
-    </row>
-    <row r="97" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="D97" s="8"/>
-    </row>
-    <row r="98" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="D98" s="8"/>
-    </row>
-    <row r="99" spans="1:4" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="D99" s="8"/>
-    </row>
-    <row r="100" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="D100" s="8"/>
-    </row>
-    <row r="101" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="D101" s="8"/>
-    </row>
-    <row r="102" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="D102" s="8"/>
-    </row>
-    <row r="103" spans="1:4" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="D103" s="8"/>
-    </row>
-    <row r="104" spans="1:4" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="D104" s="8"/>
-    </row>
-    <row r="105" spans="1:4" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="D105" s="8"/>
-    </row>
-    <row r="106" spans="1:4" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="1:4" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D108" s="8"/>
-    </row>
-    <row r="109" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D109" s="8"/>
-    </row>
-    <row r="110" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="D110" s="8"/>
-    </row>
-    <row r="111" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D111" s="8"/>
-    </row>
-    <row r="112" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D112" s="8"/>
-    </row>
-    <row r="113" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D113" s="8"/>
-    </row>
-    <row r="114" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D114" s="8"/>
-    </row>
-    <row r="115" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D115" s="8"/>
-    </row>
-    <row r="116" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D117" s="8"/>
-    </row>
-    <row r="118" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D118" s="8"/>
-    </row>
-    <row r="119" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D119" s="8"/>
-    </row>
-    <row r="120" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D120" s="8"/>
-    </row>
-    <row r="121" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D121" s="8"/>
-    </row>
-    <row r="122" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D122" s="8"/>
-    </row>
-    <row r="123" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D123" s="8"/>
-    </row>
-    <row r="124" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D125" s="8"/>
-    </row>
-    <row r="126" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D126" s="8"/>
-    </row>
-    <row r="127" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D127" s="8"/>
-    </row>
-    <row r="128" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D128" s="8"/>
-    </row>
-    <row r="129" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D129" s="8"/>
-    </row>
-    <row r="130" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D130" s="8"/>
-    </row>
-    <row r="131" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D131" s="8"/>
-    </row>
-    <row r="132" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D132" s="8"/>
-    </row>
-    <row r="133" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D133" s="8"/>
-    </row>
-    <row r="134" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="D134" s="8"/>
-    </row>
-    <row r="135" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D136" s="8"/>
-    </row>
-    <row r="137" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D137" s="8"/>
-    </row>
-    <row r="138" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="D138" s="8"/>
-    </row>
-    <row r="139" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="D139" s="8"/>
-    </row>
-    <row r="140" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="D140" s="8"/>
-    </row>
-    <row r="141" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="D141" s="8"/>
-    </row>
-    <row r="142" spans="1:4" s="10" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="D142" s="8"/>
-    </row>
-    <row r="143" spans="1:4" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="D143" s="8"/>
-    </row>
-    <row r="144" spans="1:4" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="D144" s="8"/>
-    </row>
-    <row r="145" spans="1:4" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="D145" s="8"/>
-    </row>
-    <row r="146" spans="1:4" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="D146" s="8"/>
-    </row>
-    <row r="147" spans="1:4" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="D147" s="8"/>
-    </row>
-    <row r="148" spans="1:4" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="D148" s="8"/>
-    </row>
-    <row r="149" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D149" s="8"/>
-    </row>
-    <row r="150" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D150" s="8"/>
-    </row>
-    <row r="151" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="D151" s="8"/>
-    </row>
-    <row r="152" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="D152" s="8"/>
-    </row>
-    <row r="153" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="D153" s="8"/>
-    </row>
-    <row r="154" spans="1:4" s="10" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D154" s="8"/>
-    </row>
-    <row r="155" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D155" s="8"/>
-    </row>
-    <row r="156" spans="1:4" s="10" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="D156" s="8"/>
-    </row>
-    <row r="157" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D157" s="8"/>
-    </row>
-    <row r="158" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="D158" s="8"/>
-    </row>
-    <row r="159" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="D159" s="8"/>
-    </row>
-    <row r="160" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D160" s="8"/>
-    </row>
-    <row r="161" spans="1:4" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D161" s="8"/>
-    </row>
-    <row r="162" spans="1:4" s="10" customFormat="1" ht="69.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D162" s="8"/>
-    </row>
-    <row r="163" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D163" s="8"/>
-    </row>
-    <row r="164" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D164" s="8"/>
-    </row>
-    <row r="165" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" s="10" customFormat="1" ht="93" x14ac:dyDescent="0.25">
-      <c r="A166" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D166" s="8"/>
-    </row>
-    <row r="167" spans="1:4" s="10" customFormat="1" ht="69.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D167" s="8"/>
-    </row>
-    <row r="168" spans="1:4" s="10" customFormat="1" ht="69.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D168" s="8"/>
-    </row>
-    <row r="169" spans="1:4" s="10" customFormat="1" ht="69.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D169" s="8"/>
-    </row>
-    <row r="170" spans="1:4" s="10" customFormat="1" ht="69.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D170" s="8"/>
-    </row>
-    <row r="171" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A171" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="D171" s="8"/>
-    </row>
-    <row r="172" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A172" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="D172" s="9" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A173" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="D173" s="8"/>
-    </row>
-    <row r="174" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D174" s="8"/>
-    </row>
-    <row r="175" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="D175" s="8"/>
-    </row>
-    <row r="176" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A176" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D176" s="8"/>
-    </row>
-    <row r="177" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D177" s="8"/>
-    </row>
-    <row r="178" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A178" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D178" s="8"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C179" s="2"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C180" s="2"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C181" s="2"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C182" s="2"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C183" s="2"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C184" s="2"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C185" s="2"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C186" s="2"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C187" s="2"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C188" s="2"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C189" s="2"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C190" s="2"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C191" s="2"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C192" s="2"/>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="2"/>
+      <c r="B306" s="3">
+        <v>1938</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="F306" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G303"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D33" r:id="rId4"/>
-    <hyperlink ref="D42" r:id="rId5"/>
-    <hyperlink ref="D53" r:id="rId6"/>
-    <hyperlink ref="D57" r:id="rId7"/>
-    <hyperlink ref="D89" r:id="rId8"/>
-    <hyperlink ref="D116" r:id="rId9"/>
-    <hyperlink ref="D124" r:id="rId10"/>
-    <hyperlink ref="D135" r:id="rId11"/>
-    <hyperlink ref="D46" r:id="rId12"/>
-    <hyperlink ref="D79" r:id="rId13"/>
-    <hyperlink ref="D172" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D27" r:id="rId16"/>
-    <hyperlink ref="D107" r:id="rId17"/>
-    <hyperlink ref="D38" r:id="rId18"/>
-    <hyperlink ref="D165" r:id="rId19"/>
+    <hyperlink ref="D35" r:id="rId4"/>
+    <hyperlink ref="D44" r:id="rId5"/>
+    <hyperlink ref="D55" r:id="rId6"/>
+    <hyperlink ref="D59" r:id="rId7"/>
+    <hyperlink ref="D91" r:id="rId8"/>
+    <hyperlink ref="D118" r:id="rId9"/>
+    <hyperlink ref="D126" r:id="rId10"/>
+    <hyperlink ref="D137" r:id="rId11"/>
+    <hyperlink ref="D48" r:id="rId12"/>
+    <hyperlink ref="D81" r:id="rId13"/>
+    <hyperlink ref="D175" r:id="rId14"/>
+    <hyperlink ref="D18" r:id="rId15"/>
+    <hyperlink ref="D29" r:id="rId16"/>
+    <hyperlink ref="D109" r:id="rId17"/>
+    <hyperlink ref="D40" r:id="rId18"/>
+    <hyperlink ref="D168" r:id="rId19"/>
     <hyperlink ref="D8" r:id="rId20"/>
-    <hyperlink ref="D18" r:id="rId21"/>
+    <hyperlink ref="D20" r:id="rId21"/>
+    <hyperlink ref="D12" r:id="rId22"/>
+    <hyperlink ref="D11" r:id="rId23"/>
+    <hyperlink ref="D9" r:id="rId24"/>
+    <hyperlink ref="D10" r:id="rId25"/>
+    <hyperlink ref="D30" r:id="rId26"/>
+    <hyperlink ref="D57" r:id="rId27"/>
+    <hyperlink ref="D158" r:id="rId28"/>
+    <hyperlink ref="E210" r:id="rId29"/>
+    <hyperlink ref="E211" r:id="rId30"/>
+    <hyperlink ref="E212" r:id="rId31"/>
+    <hyperlink ref="E213" r:id="rId32"/>
+    <hyperlink ref="E217" r:id="rId33"/>
+    <hyperlink ref="E214" r:id="rId34"/>
+    <hyperlink ref="E218" r:id="rId35"/>
+    <hyperlink ref="E219" r:id="rId36"/>
+    <hyperlink ref="E220" r:id="rId37"/>
+    <hyperlink ref="E221" r:id="rId38"/>
+    <hyperlink ref="E222" r:id="rId39"/>
+    <hyperlink ref="E223" r:id="rId40"/>
+    <hyperlink ref="E224" r:id="rId41"/>
+    <hyperlink ref="E226" r:id="rId42"/>
+    <hyperlink ref="E228" r:id="rId43"/>
+    <hyperlink ref="E227" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
 
@@ -4702,7 +7648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A487"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A469" sqref="A469"/>
     </sheetView>
   </sheetViews>
@@ -6561,7 +9507,7 @@
     </row>
     <row r="465" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
@@ -6569,7 +9515,7 @@
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
@@ -6577,7 +9523,7 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
